--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _DLMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103 _DLMinhHuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="24" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -509,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -667,9 +667,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,22 +676,7 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,6 +698,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1057,43 +1054,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1138,58 +1135,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="56" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -1214,23 +1211,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1254,7 +1251,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>72</v>
       </c>
       <c r="J6" s="40" t="s">
@@ -1282,7 +1279,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1345,7 +1342,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1383,7 +1380,7 @@
       <c r="M8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="56">
+      <c r="N8" s="55">
         <v>120000</v>
       </c>
       <c r="O8" s="40" t="s">
@@ -1402,7 +1399,7 @@
         <v>77</v>
       </c>
       <c r="T8" s="44"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1459,7 +1456,7 @@
         <v>77</v>
       </c>
       <c r="T9" s="44"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1516,7 +1513,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1545,7 +1542,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1574,7 +1571,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1605,7 +1602,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1634,7 +1631,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1663,7 +1660,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1692,7 +1689,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2923,6 +2920,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2934,13 +2938,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2951,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showZeros="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2984,43 +2981,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3065,58 +3062,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="56" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
@@ -3141,23 +3138,23 @@
       <c r="I5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="48" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3181,7 +3178,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="54" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="40" t="s">
@@ -3211,7 +3208,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3242,7 +3239,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="47"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3271,7 +3268,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3300,7 +3297,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3329,7 +3326,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3358,7 +3355,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="47"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3387,7 +3384,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3418,7 +3415,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3447,7 +3444,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="47"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3476,7 +3473,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3505,7 +3502,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4736,13 +4733,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4754,6 +4744,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4764,8 +4761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4797,43 +4794,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4878,58 +4875,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="56"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="56" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -4954,49 +4951,75 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44533</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868345031035751</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
+      <c r="I6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5008,26 +5031,58 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="B7" s="37">
+        <v>44533</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868811037159451</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="3">
+        <v>220000</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5037,26 +5092,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44533</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="39">
+        <v>864811037229775</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="L8" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="55">
+        <v>120000</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="T8" s="44"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5066,26 +5149,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44533</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868926033983609</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="T9" s="44"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5095,26 +5206,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44533</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868926033958197</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5124,26 +5263,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44533</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="39">
+        <v>866104028754755</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="58"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5172,7 +5339,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="57" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5203,7 +5370,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="58"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5232,7 +5399,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="58"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5261,7 +5428,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="58"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5290,7 +5457,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="59"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5409,7 +5576,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5441,7 +5608,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5473,7 +5640,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5622,7 +5789,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -5654,7 +5821,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -5750,7 +5917,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5878,7 +6045,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5910,7 +6077,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -5942,7 +6109,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6521,6 +6688,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6532,13 +6706,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
